--- a/数据整理/stocks/港股/06989-卓越商企服务集团有限公司.xlsx
+++ b/数据整理/stocks/港股/06989-卓越商企服务集团有限公司.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160125</t>
+          <t>202801</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方香港优选股票QDII-LOF</t>
+          <t>南方全球精选配置(QDII-FOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.88</t>
+          <t>29.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>31.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8398</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>202801</t>
+          <t>160125</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方全球精选配置(QDII-FOF)</t>
+          <t>南方香港优选股票QDII-LOF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31.37</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>26.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>30.74</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.88</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7664</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006373</t>
+          <t>160125</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
+          <t>南方香港优选股票QDII-LOF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>85.34</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1643</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -650,25 +710,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006374</t>
+          <t>006373</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
+          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>85.34</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.26</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160125</t>
+          <t>006374</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方香港优选股票QDII-LOF</t>
+          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>82.53</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/06989-卓越商企服务集团有限公司.xlsx
+++ b/数据整理/stocks/港股/06989-卓越商企服务集团有限公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6336</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06989-卓越商企服务集团有限公司.xlsx
+++ b/数据整理/stocks/港股/06989-卓越商企服务集团有限公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -916,4 +917,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>31.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4349</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06989-卓越商企服务集团有限公司.xlsx
+++ b/数据整理/stocks/港股/06989-卓越商企服务集团有限公司.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06989-卓越商企服务集团有限公司.xlsx
+++ b/数据整理/stocks/港股/06989-卓越商企服务集团有限公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +1032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1072,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>30.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3771</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
@@ -1067,14 +1162,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.79</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="4">
@@ -1083,14 +1178,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.99</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="5">
@@ -1099,13 +1194,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06989-卓越商企服务集团有限公司.xlsx
+++ b/数据整理/stocks/港股/06989-卓越商企服务集团有限公司.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1115,7 +1116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,17 +1127,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1146,14 +1167,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3240</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="3">
@@ -1162,14 +1257,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="4">
@@ -1178,14 +1273,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.79</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="5">
@@ -1194,14 +1289,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.99</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="6">
@@ -1210,13 +1305,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06989-卓越商企服务集团有限公司.xlsx
+++ b/数据整理/stocks/港股/06989-卓越商企服务集团有限公司.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>31.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3373</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="3">
@@ -1257,14 +1352,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="4">
@@ -1273,14 +1368,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5">
@@ -1289,14 +1384,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.79</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="6">
@@ -1305,14 +1400,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.99</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="7">
@@ -1321,13 +1416,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06989-卓越商企服务集团有限公司.xlsx
+++ b/数据整理/stocks/港股/06989-卓越商企服务集团有限公司.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,129 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>202801</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方全球精选配置(QDII-FOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>29.26</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>31.37</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8398</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160125</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方香港优选股票QDII-LOF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1674</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D4" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.01</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -589,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -650,140 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.61</t>
+          <t>17.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>30.74</t>
+          <t>31.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7664</t>
+          <t>0.3373</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160125</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方香港优选股票QDII-LOF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>82.53</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1643</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006373</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.34</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0293</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
         <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006374</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.34</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0293</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -797,7 +699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -818,7 +720,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -858,64 +760,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.51</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>29.64</t>
+          <t>28.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6336</t>
+          <t>0.3240</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160125</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方香港优选股票QDII-LOF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.16</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1604</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -950,7 +814,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -990,26 +854,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.51</t>
+          <t>21.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>31.19</t>
+          <t>30.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4349</t>
+          <t>0.3771</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1044,7 +908,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1084,26 +948,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.55</t>
+          <t>23.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>30.76</t>
+          <t>31.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3771</t>
+          <t>0.4349</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1117,7 +981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1138,7 +1002,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1178,26 +1042,64 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>26.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>28.82</t>
+          <t>29.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3240</t>
+          <t>0.6336</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1211,7 +1113,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1232,7 +1134,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1272,26 +1174,140 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.21</t>
+          <t>26.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>31.93</t>
+          <t>30.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3373</t>
+          <t>0.7664</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1643</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006373</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006374</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1305,144 +1321,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>31.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8398</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.01</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/06989-卓越商企服务集团有限公司.xlsx
+++ b/数据整理/stocks/港股/06989-卓越商企服务集团有限公司.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.34</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.79</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.99</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -661,31 +678,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方全球精选配置(QDII-FOF)</t>
+          <t>南方全球精选配置（QDII-FOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.21</t>
+          <t>15.80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>31.93</t>
+          <t>29.52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3373</t>
+          <t>0.2496</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -760,26 +777,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>17.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>28.82</t>
+          <t>31.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3240</t>
+          <t>0.3373</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -854,26 +871,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.55</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>30.76</t>
+          <t>28.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3771</t>
+          <t>0.3240</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +925,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -948,26 +965,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.51</t>
+          <t>21.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>31.19</t>
+          <t>30.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4349</t>
+          <t>0.3771</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -976,6 +993,100 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>31.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4349</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1107,7 +1218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1315,7 +1426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
